--- a/pvalue.xlsx
+++ b/pvalue.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smura\develop\R言語\wilcoxon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080AD91D-8CB3-46EA-BBF3-6C5E4CC1B80B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE95285-BA2F-4680-99CF-18DF81249EA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pvalue" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t xml:space="preserve">確率													</t>
   </si>
@@ -105,6 +113,46 @@
   </si>
   <si>
     <t>開放感がある</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>擬似窓・無窓</t>
+    <rPh sb="0" eb="2">
+      <t>ギジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ムソウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>選好・標準</t>
+    <rPh sb="0" eb="2">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>40代無窓擬似窓</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>20代無窓擬似窓</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1063,7 +1111,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1072,7 +1120,7 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13.8984375" customWidth="1"/>
     <col min="4" max="4" width="14.296875" customWidth="1"/>
-    <col min="5" max="5" width="6.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
     <col min="6" max="6" width="7.59765625" customWidth="1"/>
     <col min="7" max="7" width="11.59765625" customWidth="1"/>
   </cols>
@@ -1082,22 +1130,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -1123,22 +1165,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.99109999999999998</v>
+        <v>7.1953187492940799E-3</v>
       </c>
       <c r="C2">
-        <v>0.4662</v>
+        <v>0.22494540619004499</v>
       </c>
       <c r="D2">
-        <v>7.2639999999999996E-3</v>
+        <v>8.3699892718842196E-3</v>
       </c>
       <c r="E2">
-        <v>0.46439999999999998</v>
-      </c>
-      <c r="F2">
-        <v>0.10290000000000001</v>
-      </c>
-      <c r="G2">
-        <v>2.493E-3</v>
+        <v>4.9711691408428496E-4</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -1164,22 +1200,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1643</v>
+        <v>2.3745892791478401E-2</v>
       </c>
       <c r="C3">
-        <v>1.6400000000000001E-2</v>
+        <v>1.22413636483739E-2</v>
       </c>
       <c r="D3">
-        <v>8.6820000000000005E-3</v>
+        <v>6.3644435862111296E-4</v>
       </c>
       <c r="E3">
-        <v>0.27839999999999998</v>
-      </c>
-      <c r="F3">
-        <v>0.33929999999999999</v>
-      </c>
-      <c r="G3">
-        <v>6.0249999999999998E-2</v>
+        <v>9.9442998876539592E-3</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -1205,22 +1235,16 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.246</v>
+        <v>0.60467819495824804</v>
       </c>
       <c r="C4">
-        <v>0.90329999999999999</v>
+        <v>0.32094880994147001</v>
       </c>
       <c r="D4">
-        <v>0.88149999999999995</v>
+        <v>0.25323977340540799</v>
       </c>
       <c r="E4">
-        <v>0.85229999999999995</v>
-      </c>
-      <c r="F4">
-        <v>0.80179999999999996</v>
-      </c>
-      <c r="G4">
-        <v>5.0979999999999998E-2</v>
+        <v>1.88565577114953E-2</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -1246,22 +1270,16 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.81310000000000004</v>
+        <v>1.65780757711959E-2</v>
       </c>
       <c r="C5">
-        <v>0.21060000000000001</v>
+        <v>5.7716896105080899E-2</v>
       </c>
       <c r="D5">
-        <v>2.87E-2</v>
+        <v>2.53243998054169E-3</v>
       </c>
       <c r="E5">
-        <v>0.15329999999999999</v>
-      </c>
-      <c r="F5">
-        <v>4.5749999999999999E-2</v>
-      </c>
-      <c r="G5">
-        <v>1.951E-2</v>
+        <v>1.5564905257359201E-3</v>
       </c>
       <c r="I5" t="s">
         <v>9</v>
@@ -1287,22 +1305,16 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.2039</v>
+        <v>1.4948666017868301E-4</v>
       </c>
       <c r="C6">
-        <v>6.2240000000000004E-3</v>
-      </c>
-      <c r="D6">
-        <v>1.905E-3</v>
+        <v>5.5389448066985405E-4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.93797763722133E-7</v>
       </c>
       <c r="E6">
-        <v>0.70420000000000005</v>
-      </c>
-      <c r="F6">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="G6">
-        <v>3.6310000000000002E-2</v>
+        <v>5.54795205162975E-3</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -1328,22 +1340,16 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>5.2330000000000002E-2</v>
+        <v>4.1782514315597598E-4</v>
       </c>
       <c r="C7">
-        <v>1.103E-2</v>
-      </c>
-      <c r="D7">
-        <v>2.4250000000000001E-3</v>
+        <v>2.09344956583143E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.5547889504654201E-5</v>
       </c>
       <c r="E7">
-        <v>0.59230000000000005</v>
-      </c>
-      <c r="F7">
-        <v>6.2609999999999999E-2</v>
-      </c>
-      <c r="G7">
-        <v>0.24970000000000001</v>
+        <v>8.5924055432161806E-2</v>
       </c>
       <c r="I7" t="s">
         <v>9</v>
@@ -1369,22 +1375,16 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>4.8099999999999997E-2</v>
+        <v>2.4497555143996598E-7</v>
       </c>
       <c r="C8" s="1">
-        <v>4.3300000000000002E-5</v>
+        <v>3.6907105594002501E-7</v>
       </c>
       <c r="D8" s="1">
-        <v>1.08E-5</v>
+        <v>2.4805110228604602E-13</v>
       </c>
       <c r="E8">
-        <v>0.61809999999999998</v>
-      </c>
-      <c r="F8">
-        <v>0.18</v>
-      </c>
-      <c r="G8">
-        <v>0.24540000000000001</v>
+        <v>6.5397831758440494E-2</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1410,22 +1410,16 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>7.7289999999999998E-3</v>
+        <v>1.9340175113681501E-7</v>
       </c>
       <c r="C9">
-        <v>2.165E-4</v>
+        <v>8.4616317423231394E-9</v>
       </c>
       <c r="D9" s="1">
-        <v>1.08E-5</v>
+        <v>1.24798831241906E-15</v>
       </c>
       <c r="E9">
-        <v>0.3155</v>
-      </c>
-      <c r="F9">
-        <v>0.1036</v>
-      </c>
-      <c r="G9">
-        <v>0.31169999999999998</v>
+        <v>0.17866515641088601</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -1451,22 +1445,16 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.10879999999999999</v>
+        <v>1.2893450075787701E-7</v>
       </c>
       <c r="C10">
-        <v>4.9799999999999996E-4</v>
+        <v>1.9419658121874699E-6</v>
       </c>
       <c r="D10" s="1">
-        <v>1.08E-5</v>
+        <v>6.8601233614887E-13</v>
       </c>
       <c r="E10">
-        <v>0.62809999999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.18</v>
-      </c>
-      <c r="G10">
-        <v>0.50219999999999998</v>
+        <v>0.25434139608045098</v>
       </c>
       <c r="I10" t="s">
         <v>9</v>
@@ -1492,22 +1480,16 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.1047</v>
+        <v>1.12883444758529E-3</v>
       </c>
       <c r="C11">
-        <v>1.95E-2</v>
-      </c>
-      <c r="D11">
-        <v>5.6940000000000003E-3</v>
+        <v>3.36706679553502E-4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.0203503730491604E-7</v>
       </c>
       <c r="E11">
-        <v>0.99560000000000004</v>
-      </c>
-      <c r="F11">
-        <v>0.22339999999999999</v>
-      </c>
-      <c r="G11">
-        <v>0.3221</v>
+        <v>0.140470962861341</v>
       </c>
       <c r="I11" t="s">
         <v>9</v>
@@ -1538,22 +1520,20 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>99.11</v>
+        <f>B2*100</f>
+        <v>0.71953187492940796</v>
       </c>
       <c r="C13">
-        <v>46.62</v>
+        <f t="shared" ref="C13:E13" si="0">C2*100</f>
+        <v>22.4945406190045</v>
       </c>
       <c r="D13">
-        <v>0.72640000000000005</v>
+        <f t="shared" si="0"/>
+        <v>0.83699892718842195</v>
       </c>
       <c r="E13">
-        <v>46.44</v>
-      </c>
-      <c r="F13">
-        <v>10.29</v>
-      </c>
-      <c r="G13">
-        <v>0.24929999999999999</v>
+        <f t="shared" si="0"/>
+        <v>4.9711691408428495E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -1561,22 +1541,20 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>16.43</v>
+        <f t="shared" ref="B14:E22" si="1">B3*100</f>
+        <v>2.3745892791478402</v>
       </c>
       <c r="C14">
-        <v>1.64</v>
+        <f t="shared" si="1"/>
+        <v>1.22413636483739</v>
       </c>
       <c r="D14">
-        <v>0.86819999999999997</v>
+        <f t="shared" si="1"/>
+        <v>6.3644435862111298E-2</v>
       </c>
       <c r="E14">
-        <v>27.84</v>
-      </c>
-      <c r="F14">
-        <v>33.93</v>
-      </c>
-      <c r="G14">
-        <v>6.0250000000000004</v>
+        <f t="shared" si="1"/>
+        <v>0.9944299887653959</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
@@ -1584,22 +1562,20 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.6</v>
+        <f t="shared" si="1"/>
+        <v>60.467819495824806</v>
       </c>
       <c r="C15">
-        <v>90.33</v>
+        <f t="shared" si="1"/>
+        <v>32.094880994147005</v>
       </c>
       <c r="D15">
-        <v>88.15</v>
+        <f t="shared" si="1"/>
+        <v>25.3239773405408</v>
       </c>
       <c r="E15">
-        <v>85.23</v>
-      </c>
-      <c r="F15">
-        <v>80.180000000000007</v>
-      </c>
-      <c r="G15">
-        <v>5.0979999999999999</v>
+        <f t="shared" si="1"/>
+        <v>1.8856557711495299</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -1607,164 +1583,151 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>81.31</v>
+        <f t="shared" si="1"/>
+        <v>1.6578075771195899</v>
       </c>
       <c r="C16">
-        <v>21.06</v>
+        <f t="shared" si="1"/>
+        <v>5.7716896105080897</v>
       </c>
       <c r="D16">
-        <v>2.87</v>
+        <f t="shared" si="1"/>
+        <v>0.25324399805416897</v>
       </c>
       <c r="E16">
-        <v>15.33</v>
-      </c>
-      <c r="F16">
-        <v>4.5750000000000002</v>
-      </c>
-      <c r="G16">
-        <v>1.9510000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>0.15564905257359202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>20.39</v>
+        <f t="shared" si="1"/>
+        <v>1.4948666017868302E-2</v>
       </c>
       <c r="C17">
-        <v>0.62239999999999995</v>
+        <f t="shared" si="1"/>
+        <v>5.5389448066985404E-2</v>
       </c>
       <c r="D17">
-        <v>0.1905</v>
+        <f t="shared" si="1"/>
+        <v>2.9379776372213301E-5</v>
       </c>
       <c r="E17">
-        <v>70.42</v>
-      </c>
-      <c r="F17">
-        <v>26.2</v>
-      </c>
-      <c r="G17">
-        <v>3.6309999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>0.55479520516297498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.2329999999999997</v>
+        <f t="shared" si="1"/>
+        <v>4.1782514315597596E-2</v>
       </c>
       <c r="C18">
-        <v>1.103</v>
+        <f t="shared" si="1"/>
+        <v>2.0934495658314298</v>
       </c>
       <c r="D18">
-        <v>0.24249999999999999</v>
+        <f t="shared" si="1"/>
+        <v>4.5547889504654205E-3</v>
       </c>
       <c r="E18">
-        <v>59.23</v>
-      </c>
-      <c r="F18">
-        <v>6.2610000000000001</v>
-      </c>
-      <c r="G18">
-        <v>24.97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>8.5924055432161808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>4.8099999999999996</v>
+        <f t="shared" si="1"/>
+        <v>2.4497555143996598E-5</v>
       </c>
       <c r="C19">
-        <v>4.3299999999999996E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.69071055940025E-5</v>
       </c>
       <c r="D19">
-        <v>1.083E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.4805110228604601E-11</v>
       </c>
       <c r="E19">
-        <v>61.81</v>
-      </c>
-      <c r="F19">
-        <v>18</v>
-      </c>
-      <c r="G19">
-        <v>24.54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>6.5397831758440494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.77290000000000003</v>
+        <f t="shared" si="1"/>
+        <v>1.9340175113681501E-5</v>
       </c>
       <c r="C20">
-        <v>2.1649999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.461631742323139E-7</v>
       </c>
       <c r="D20">
-        <v>1.083E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.24798831241906E-13</v>
       </c>
       <c r="E20">
-        <v>31.55</v>
-      </c>
-      <c r="F20">
-        <v>10.36</v>
-      </c>
-      <c r="G20">
-        <v>31.17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>17.866515641088601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21">
-        <v>10.88</v>
+        <f t="shared" si="1"/>
+        <v>1.2893450075787701E-5</v>
       </c>
       <c r="C21">
-        <v>4.9799999999999997E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.9419658121874698E-4</v>
       </c>
       <c r="D21">
-        <v>1.083E-3</v>
+        <f t="shared" si="1"/>
+        <v>6.8601233614887004E-11</v>
       </c>
       <c r="E21">
-        <v>62.81</v>
-      </c>
-      <c r="F21">
-        <v>18</v>
-      </c>
-      <c r="G21">
-        <v>50.22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>25.434139608045097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.47</v>
+        <f t="shared" si="1"/>
+        <v>0.112883444758529</v>
       </c>
       <c r="C22">
-        <v>1.95</v>
+        <f t="shared" si="1"/>
+        <v>3.3670667955350203E-2</v>
       </c>
       <c r="D22">
-        <v>0.56940000000000002</v>
+        <f t="shared" si="1"/>
+        <v>5.0203503730491605E-5</v>
       </c>
       <c r="E22">
-        <v>99.56</v>
-      </c>
-      <c r="F22">
-        <v>22.34</v>
-      </c>
-      <c r="G22">
-        <v>32.21</v>
+        <f t="shared" si="1"/>
+        <v>14.047096286134101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>